--- a/code/data/150_gap_results.xlsx
+++ b/code/data/150_gap_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,18 @@
           <t>calculated_bestnum</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,6 +482,9 @@
       </c>
       <c r="E2" t="n">
         <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -496,6 +504,9 @@
       </c>
       <c r="E3" t="n">
         <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -514,7 +525,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -534,6 +548,9 @@
       </c>
       <c r="E5" t="n">
         <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -553,6 +570,9 @@
       </c>
       <c r="E6" t="n">
         <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,6 +592,9 @@
       </c>
       <c r="E7" t="n">
         <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -579,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -591,6 +614,9 @@
       </c>
       <c r="E8" t="n">
         <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -598,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.944655873583051</v>
+        <v>0.948753685145501</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -610,6 +636,9 @@
       </c>
       <c r="E9" t="n">
         <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -629,6 +658,9 @@
       </c>
       <c r="E10" t="n">
         <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -636,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -648,6 +680,9 @@
       </c>
       <c r="E11" t="n">
         <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -655,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -666,7 +701,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -686,6 +724,9 @@
       </c>
       <c r="E13" t="n">
         <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -693,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -705,6 +746,9 @@
       </c>
       <c r="E14" t="n">
         <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -724,6 +768,9 @@
       </c>
       <c r="E15" t="n">
         <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -731,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -743,6 +790,9 @@
       </c>
       <c r="E16" t="n">
         <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -750,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8675175724998679</v>
+        <v>0.8661423057315565</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -762,6 +812,9 @@
       </c>
       <c r="E17" t="n">
         <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -769,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -781,6 +834,9 @@
       </c>
       <c r="E18" t="n">
         <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -800,6 +856,9 @@
       </c>
       <c r="E19" t="n">
         <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -818,7 +877,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -826,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -838,6 +900,9 @@
       </c>
       <c r="E21" t="n">
         <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -857,6 +922,9 @@
       </c>
       <c r="E22" t="n">
         <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -864,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -876,6 +944,9 @@
       </c>
       <c r="E23" t="n">
         <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -883,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -896,13 +967,16 @@
       <c r="E24" t="n">
         <v>9</v>
       </c>
+      <c r="F24" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7010986741470013</v>
+        <v>0.7195870535714285</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -914,6 +988,9 @@
       </c>
       <c r="E25" t="n">
         <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="26">
@@ -921,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -933,6 +1010,9 @@
       </c>
       <c r="E26" t="n">
         <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -940,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -952,6 +1032,9 @@
       </c>
       <c r="E27" t="n">
         <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -959,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -970,7 +1053,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -978,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -990,6 +1076,9 @@
       </c>
       <c r="E29" t="n">
         <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -997,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1009,6 +1098,9 @@
       </c>
       <c r="E30" t="n">
         <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -1016,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1028,6 +1120,9 @@
       </c>
       <c r="E31" t="n">
         <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1048,13 +1143,16 @@
       <c r="E32" t="n">
         <v>9</v>
       </c>
+      <c r="F32" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6553146253340648</v>
+        <v>0.6422387162281913</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1067,13 +1165,16 @@
       <c r="E33" t="n">
         <v>7</v>
       </c>
+      <c r="F33" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1085,6 +1186,9 @@
       </c>
       <c r="E34" t="n">
         <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -1092,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1104,6 +1208,9 @@
       </c>
       <c r="E35" t="n">
         <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1124,13 +1231,16 @@
       <c r="E36" t="n">
         <v>8</v>
       </c>
+      <c r="F36" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1141,7 +1251,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="38">
@@ -1149,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1161,6 +1274,9 @@
       </c>
       <c r="E38" t="n">
         <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="39">
@@ -1168,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1179,7 +1295,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -1187,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1198,7 +1317,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1206,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9259899915373897</v>
+        <v>0.4691135507127641</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1217,7 +1339,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="42">
@@ -1225,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1237,6 +1362,9 @@
       </c>
       <c r="E42" t="n">
         <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1244,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1256,6 +1384,9 @@
       </c>
       <c r="E43" t="n">
         <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="44">
@@ -1263,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1275,6 +1406,9 @@
       </c>
       <c r="E44" t="n">
         <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -1282,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1294,6 +1428,9 @@
       </c>
       <c r="E45" t="n">
         <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -1301,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1313,6 +1450,9 @@
       </c>
       <c r="E46" t="n">
         <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -1320,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1332,6 +1472,9 @@
       </c>
       <c r="E47" t="n">
         <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="48">
@@ -1339,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1352,13 +1495,16 @@
       <c r="E48" t="n">
         <v>9</v>
       </c>
+      <c r="F48" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9172165974575436</v>
+        <v>0.930987808674677</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1370,6 +1516,9 @@
       </c>
       <c r="E49" t="n">
         <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="50">
@@ -1377,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1389,6 +1538,9 @@
       </c>
       <c r="E50" t="n">
         <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="51">
@@ -1396,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1408,6 +1560,9 @@
       </c>
       <c r="E51" t="n">
         <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="52">
@@ -1415,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1426,7 +1581,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -1434,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1446,6 +1604,9 @@
       </c>
       <c r="E53" t="n">
         <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -1453,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1465,6 +1626,9 @@
       </c>
       <c r="E54" t="n">
         <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="55">
@@ -1472,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1484,6 +1648,9 @@
       </c>
       <c r="E55" t="n">
         <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="56">
@@ -1491,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1504,13 +1671,16 @@
       <c r="E56" t="n">
         <v>9</v>
       </c>
+      <c r="F56" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8467027573903715</v>
+        <v>0.8733215900026589</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1522,6 +1692,9 @@
       </c>
       <c r="E57" t="n">
         <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="58">
@@ -1529,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1541,6 +1714,9 @@
       </c>
       <c r="E58" t="n">
         <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -1548,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1560,6 +1736,9 @@
       </c>
       <c r="E59" t="n">
         <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -1567,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1579,6 +1758,9 @@
       </c>
       <c r="E60" t="n">
         <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="61">
@@ -1586,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1597,7 +1779,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="62">
@@ -1605,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1617,6 +1802,9 @@
       </c>
       <c r="E62" t="n">
         <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="63">
@@ -1624,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1636,6 +1824,9 @@
       </c>
       <c r="E63" t="n">
         <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1655,6 +1846,9 @@
       </c>
       <c r="E64" t="n">
         <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="65">
@@ -1662,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6875582228783553</v>
+        <v>0.6520932896576082</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1674,6 +1868,9 @@
       </c>
       <c r="E65" t="n">
         <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="66">
@@ -1681,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1693,6 +1890,9 @@
       </c>
       <c r="E66" t="n">
         <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="67">
@@ -1700,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1712,6 +1912,9 @@
       </c>
       <c r="E67" t="n">
         <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="68">
@@ -1719,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1730,7 +1933,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="69">
@@ -1738,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1749,7 +1955,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="70">
@@ -1757,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1769,6 +1978,9 @@
       </c>
       <c r="E70" t="n">
         <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="71">
@@ -1776,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1788,6 +2000,9 @@
       </c>
       <c r="E71" t="n">
         <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="72">
@@ -1795,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1807,6 +2022,9 @@
       </c>
       <c r="E72" t="n">
         <v>9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="73">
@@ -1814,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6447235193364909</v>
+        <v>0.6171417758533262</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1826,6 +2044,9 @@
       </c>
       <c r="E73" t="n">
         <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="74">
@@ -1833,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1845,6 +2066,9 @@
       </c>
       <c r="E74" t="n">
         <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="75">
@@ -1852,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1864,6 +2088,9 @@
       </c>
       <c r="E75" t="n">
         <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -1871,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1883,6 +2110,9 @@
       </c>
       <c r="E76" t="n">
         <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="77">
@@ -1890,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1901,7 +2131,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="78">
@@ -1909,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1921,6 +2154,9 @@
       </c>
       <c r="E78" t="n">
         <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -1928,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1940,6 +2176,9 @@
       </c>
       <c r="E79" t="n">
         <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="80">
@@ -1947,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1959,6 +2198,9 @@
       </c>
       <c r="E80" t="n">
         <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="81">
@@ -1966,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4242728184553663</v>
+        <v>0.4625690367272674</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1978,6 +2220,9 @@
       </c>
       <c r="E81" t="n">
         <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="82">
@@ -1985,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="B82" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1997,6 +2242,9 @@
       </c>
       <c r="E82" t="n">
         <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="83">
@@ -2004,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2016,6 +2264,9 @@
       </c>
       <c r="E83" t="n">
         <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="84">
@@ -2023,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2035,6 +2286,9 @@
       </c>
       <c r="E84" t="n">
         <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="85">
@@ -2042,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2054,6 +2308,9 @@
       </c>
       <c r="E85" t="n">
         <v>4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="86">
@@ -2061,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2073,6 +2330,9 @@
       </c>
       <c r="E86" t="n">
         <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="87">
@@ -2080,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2092,6 +2352,9 @@
       </c>
       <c r="E87" t="n">
         <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="88">
@@ -2099,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2111,6 +2374,9 @@
       </c>
       <c r="E88" t="n">
         <v>9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="89">
@@ -2118,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="n">
-        <v>0.930749992155512</v>
+        <v>0.9199296242791313</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2129,7 +2395,10 @@
         <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -2137,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2149,6 +2418,9 @@
       </c>
       <c r="E90" t="n">
         <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -2156,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2168,6 +2440,9 @@
       </c>
       <c r="E91" t="n">
         <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -2175,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2187,6 +2462,9 @@
       </c>
       <c r="E92" t="n">
         <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="93">
@@ -2194,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2206,6 +2484,9 @@
       </c>
       <c r="E93" t="n">
         <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="94">
@@ -2213,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2225,6 +2506,9 @@
       </c>
       <c r="E94" t="n">
         <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="95">
@@ -2232,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2244,6 +2528,9 @@
       </c>
       <c r="E95" t="n">
         <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="96">
@@ -2251,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2262,7 +2549,10 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="97">
@@ -2270,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8549062368901917</v>
+        <v>0.8360037778101553</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2281,7 +2571,10 @@
         <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="98">
@@ -2289,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2300,7 +2593,10 @@
         <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="99">
@@ -2308,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2320,6 +2616,9 @@
       </c>
       <c r="E99" t="n">
         <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="100">
@@ -2327,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2339,6 +2638,9 @@
       </c>
       <c r="E100" t="n">
         <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="101">
@@ -2346,7 +2648,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2357,7 +2659,10 @@
         <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="102">
@@ -2365,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2377,6 +2682,9 @@
       </c>
       <c r="E102" t="n">
         <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="103">
@@ -2384,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2396,6 +2704,9 @@
       </c>
       <c r="E103" t="n">
         <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="104">
@@ -2403,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2415,6 +2726,9 @@
       </c>
       <c r="E104" t="n">
         <v>9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="105">
@@ -2422,7 +2736,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8050694951556436</v>
+        <v>0.7978405394867373</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2434,6 +2748,9 @@
       </c>
       <c r="E105" t="n">
         <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="106">
@@ -2441,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2452,7 +2769,10 @@
         <v>4</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="107">
@@ -2460,7 +2780,7 @@
         <v>14</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2472,6 +2792,9 @@
       </c>
       <c r="E107" t="n">
         <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="108">
@@ -2479,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2491,6 +2814,9 @@
       </c>
       <c r="E108" t="n">
         <v>9</v>
+      </c>
+      <c r="F108" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="109">
@@ -2498,7 +2824,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2509,7 +2835,10 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="110">
@@ -2517,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2529,6 +2858,9 @@
       </c>
       <c r="E110" t="n">
         <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="111">
@@ -2536,7 +2868,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2547,7 +2879,10 @@
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="112">
@@ -2555,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2566,7 +2901,10 @@
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="113">
@@ -2574,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6078015456422454</v>
+        <v>0.607167587347747</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2586,6 +2924,9 @@
       </c>
       <c r="E113" t="n">
         <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="114">
@@ -2593,7 +2934,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2604,7 +2945,10 @@
         <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="115">
@@ -2612,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2624,6 +2968,9 @@
       </c>
       <c r="E115" t="n">
         <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="116">
@@ -2631,7 +2978,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2642,7 +2989,10 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="117">
@@ -2650,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2661,7 +3011,10 @@
         <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="118">
@@ -2669,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2680,7 +3033,10 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="119">
@@ -2688,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2700,6 +3056,9 @@
       </c>
       <c r="E119" t="n">
         <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="120">
@@ -2707,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2718,7 +3077,10 @@
         <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="121">
@@ -2726,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4880609022597543</v>
+        <v>0.5580976053611525</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2738,6 +3100,9 @@
       </c>
       <c r="E121" t="n">
         <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="122">
@@ -2745,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="B122" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2757,6 +3122,9 @@
       </c>
       <c r="E122" t="n">
         <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="123">
@@ -2764,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="B123" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2776,6 +3144,9 @@
       </c>
       <c r="E123" t="n">
         <v>5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="124">
@@ -2783,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="B124" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2795,6 +3166,9 @@
       </c>
       <c r="E124" t="n">
         <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="125">
@@ -2802,7 +3176,7 @@
         <v>17</v>
       </c>
       <c r="B125" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2813,7 +3187,10 @@
         <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="126">
@@ -2821,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2833,6 +3210,9 @@
       </c>
       <c r="E126" t="n">
         <v>5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="127">
@@ -2840,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="B127" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2852,6 +3232,9 @@
       </c>
       <c r="E127" t="n">
         <v>5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="128">
@@ -2859,7 +3242,7 @@
         <v>17</v>
       </c>
       <c r="B128" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2871,6 +3254,9 @@
       </c>
       <c r="E128" t="n">
         <v>9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="129">
@@ -2878,7 +3264,7 @@
         <v>17</v>
       </c>
       <c r="B129" t="n">
-        <v>0.893105060777329</v>
+        <v>0.8957187927604993</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2890,6 +3276,9 @@
       </c>
       <c r="E129" t="n">
         <v>5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="130">
@@ -2897,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2908,7 +3297,10 @@
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="131">
@@ -2916,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2928,6 +3320,9 @@
       </c>
       <c r="E131" t="n">
         <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="132">
@@ -2935,7 +3330,7 @@
         <v>18</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2946,7 +3341,10 @@
         <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="133">
@@ -2954,7 +3352,7 @@
         <v>18</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2965,7 +3363,10 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="134">
@@ -2973,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2985,6 +3386,9 @@
       </c>
       <c r="E134" t="n">
         <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="135">
@@ -2992,7 +3396,7 @@
         <v>18</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3004,6 +3408,9 @@
       </c>
       <c r="E135" t="n">
         <v>5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="136">
@@ -3011,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3023,6 +3430,9 @@
       </c>
       <c r="E136" t="n">
         <v>9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="137">
@@ -3030,7 +3440,7 @@
         <v>18</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8318944034736656</v>
+        <v>0.797086170949778</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3041,7 +3451,10 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="138">
@@ -3049,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3061,6 +3474,9 @@
       </c>
       <c r="E138" t="n">
         <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="139">
@@ -3068,7 +3484,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3079,7 +3495,10 @@
         <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="140">
@@ -3087,7 +3506,7 @@
         <v>19</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3099,6 +3518,9 @@
       </c>
       <c r="E140" t="n">
         <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="141">
@@ -3106,7 +3528,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3118,6 +3540,9 @@
       </c>
       <c r="E141" t="n">
         <v>9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="142">
@@ -3125,7 +3550,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3136,7 +3561,10 @@
         <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="143">
@@ -3144,7 +3572,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3156,6 +3584,9 @@
       </c>
       <c r="E143" t="n">
         <v>5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="144">
@@ -3163,7 +3594,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3175,6 +3606,9 @@
       </c>
       <c r="E144" t="n">
         <v>9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="145">
@@ -3182,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9047885379038745</v>
+        <v>0.8898141031685728</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3193,7 +3627,10 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="146">
@@ -3201,7 +3638,7 @@
         <v>20</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3213,6 +3650,9 @@
       </c>
       <c r="E146" t="n">
         <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="147">
@@ -3220,7 +3660,7 @@
         <v>20</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3231,7 +3671,10 @@
         <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="148">
@@ -3239,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3250,7 +3693,10 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="149">
@@ -3258,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3270,6 +3716,9 @@
       </c>
       <c r="E149" t="n">
         <v>8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="150">
@@ -3277,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3288,7 +3737,10 @@
         <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="151">
@@ -3296,7 +3748,7 @@
         <v>20</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3308,6 +3760,9 @@
       </c>
       <c r="E151" t="n">
         <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="152">
@@ -3315,7 +3770,7 @@
         <v>20</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3327,6 +3782,9 @@
       </c>
       <c r="E152" t="n">
         <v>9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="153">
@@ -3334,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5613736801777137</v>
+        <v>0.5873530673185956</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3346,6 +3804,9 @@
       </c>
       <c r="E153" t="n">
         <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="154">
@@ -3353,7 +3814,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3364,7 +3825,10 @@
         <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="155">
@@ -3372,7 +3836,7 @@
         <v>21</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3383,7 +3847,10 @@
         <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="156">
@@ -3391,7 +3858,7 @@
         <v>21</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3402,7 +3869,10 @@
         <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="157">
@@ -3410,7 +3880,7 @@
         <v>21</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3422,6 +3892,9 @@
       </c>
       <c r="E157" t="n">
         <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="158">
@@ -3429,7 +3902,7 @@
         <v>21</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3441,6 +3914,9 @@
       </c>
       <c r="E158" t="n">
         <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="159">
@@ -3448,7 +3924,7 @@
         <v>21</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3460,6 +3936,9 @@
       </c>
       <c r="E159" t="n">
         <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="160">
@@ -3467,7 +3946,7 @@
         <v>21</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3479,6 +3958,9 @@
       </c>
       <c r="E160" t="n">
         <v>9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="161">
@@ -3486,7 +3968,7 @@
         <v>21</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4999968693013457</v>
+        <v>0.4596561153509856</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3497,7 +3979,10 @@
         <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="162">
@@ -3505,7 +3990,7 @@
         <v>23</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3516,7 +4001,10 @@
         <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="163">
@@ -3524,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3536,6 +4024,9 @@
       </c>
       <c r="E163" t="n">
         <v>6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="164">
@@ -3543,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3555,6 +4046,9 @@
       </c>
       <c r="E164" t="n">
         <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="165">
@@ -3562,7 +4056,7 @@
         <v>23</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3574,6 +4068,9 @@
       </c>
       <c r="E165" t="n">
         <v>6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="166">
@@ -3581,7 +4078,7 @@
         <v>23</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3592,7 +4089,10 @@
         <v>6</v>
       </c>
       <c r="E166" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="167">
@@ -3600,7 +4100,7 @@
         <v>23</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3612,6 +4112,9 @@
       </c>
       <c r="E167" t="n">
         <v>6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="168">
@@ -3619,7 +4122,7 @@
         <v>23</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3631,6 +4134,9 @@
       </c>
       <c r="E168" t="n">
         <v>9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="169">
@@ -3638,7 +4144,7 @@
         <v>23</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9447464639910245</v>
+        <v>0.911504471907055</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3650,6 +4156,9 @@
       </c>
       <c r="E169" t="n">
         <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="170">
@@ -3657,7 +4166,7 @@
         <v>24</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3668,7 +4177,10 @@
         <v>6</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="171">
@@ -3676,7 +4188,7 @@
         <v>24</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3687,7 +4199,10 @@
         <v>6</v>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="172">
@@ -3695,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3707,6 +4222,9 @@
       </c>
       <c r="E172" t="n">
         <v>6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="173">
@@ -3714,7 +4232,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3725,7 +4243,10 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="174">
@@ -3733,7 +4254,7 @@
         <v>24</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3745,6 +4266,9 @@
       </c>
       <c r="E174" t="n">
         <v>6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="175">
@@ -3752,7 +4276,7 @@
         <v>24</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3764,6 +4288,9 @@
       </c>
       <c r="E175" t="n">
         <v>6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="176">
@@ -3771,7 +4298,7 @@
         <v>24</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3783,6 +4310,9 @@
       </c>
       <c r="E176" t="n">
         <v>9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="177">
@@ -3790,7 +4320,7 @@
         <v>24</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8296145447651637</v>
+        <v>0.8298826290189261</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3801,7 +4331,10 @@
         <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="178">
@@ -3809,7 +4342,7 @@
         <v>25</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3821,6 +4354,9 @@
       </c>
       <c r="E178" t="n">
         <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="179">
@@ -3828,7 +4364,7 @@
         <v>25</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3840,6 +4376,9 @@
       </c>
       <c r="E179" t="n">
         <v>6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="180">
@@ -3847,7 +4386,7 @@
         <v>25</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3858,7 +4397,10 @@
         <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="181">
@@ -3866,7 +4408,7 @@
         <v>25</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3878,6 +4420,9 @@
       </c>
       <c r="E181" t="n">
         <v>9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="182">
@@ -3885,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3897,6 +4442,9 @@
       </c>
       <c r="E182" t="n">
         <v>6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="183">
@@ -3904,7 +4452,7 @@
         <v>25</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3915,7 +4463,10 @@
         <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="184">
@@ -3923,7 +4474,7 @@
         <v>25</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3935,6 +4486,9 @@
       </c>
       <c r="E184" t="n">
         <v>9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="185">
@@ -3942,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6882115941214292</v>
+        <v>0.6926375237124842</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3954,6 +4508,9 @@
       </c>
       <c r="E185" t="n">
         <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="186">
@@ -3961,7 +4518,7 @@
         <v>26</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3972,7 +4529,10 @@
         <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="187">
@@ -3980,7 +4540,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3992,6 +4552,9 @@
       </c>
       <c r="E187" t="n">
         <v>6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="188">
@@ -3999,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4011,6 +4574,9 @@
       </c>
       <c r="E188" t="n">
         <v>6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="189">
@@ -4018,7 +4584,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4029,7 +4595,10 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="190">
@@ -4037,7 +4606,7 @@
         <v>26</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4049,6 +4618,9 @@
       </c>
       <c r="E190" t="n">
         <v>6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="191">
@@ -4056,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4068,6 +4640,9 @@
       </c>
       <c r="E191" t="n">
         <v>6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="192">
@@ -4075,7 +4650,7 @@
         <v>26</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4087,6 +4662,9 @@
       </c>
       <c r="E192" t="n">
         <v>9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="193">
@@ -4094,7 +4672,7 @@
         <v>26</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9265915218960118</v>
+        <v>0.8987461739230563</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4105,7 +4683,10 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="194">
@@ -4113,7 +4694,7 @@
         <v>27</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4124,7 +4705,10 @@
         <v>6</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="195">
@@ -4132,7 +4716,7 @@
         <v>27</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4143,7 +4727,10 @@
         <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="196">
@@ -4151,7 +4738,7 @@
         <v>27</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4162,7 +4749,10 @@
         <v>6</v>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="197">
@@ -4170,7 +4760,7 @@
         <v>27</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4182,6 +4772,9 @@
       </c>
       <c r="E197" t="n">
         <v>9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="198">
@@ -4189,7 +4782,7 @@
         <v>27</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4201,6 +4794,9 @@
       </c>
       <c r="E198" t="n">
         <v>6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="199">
@@ -4208,7 +4804,7 @@
         <v>27</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4219,7 +4815,10 @@
         <v>6</v>
       </c>
       <c r="E199" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="200">
@@ -4227,7 +4826,7 @@
         <v>27</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4238,7 +4837,10 @@
         <v>6</v>
       </c>
       <c r="E200" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="201">
@@ -4246,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8160578547645954</v>
+        <v>0.7979427339531542</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4257,7 +4859,10 @@
         <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="202">
@@ -4265,7 +4870,7 @@
         <v>28</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4276,7 +4881,10 @@
         <v>6</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F202" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="203">
@@ -4284,7 +4892,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4295,7 +4903,10 @@
         <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="204">
@@ -4303,7 +4914,7 @@
         <v>28</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4314,7 +4925,10 @@
         <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="205">
@@ -4322,7 +4936,7 @@
         <v>28</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4333,7 +4947,10 @@
         <v>6</v>
       </c>
       <c r="E205" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="206">
@@ -4341,7 +4958,7 @@
         <v>28</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4352,7 +4969,10 @@
         <v>6</v>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="207">
@@ -4360,7 +4980,7 @@
         <v>28</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4371,7 +4991,10 @@
         <v>6</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="208">
@@ -4379,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4390,7 +5013,10 @@
         <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="209">
@@ -4398,7 +5024,7 @@
         <v>28</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6326431320236385</v>
+        <v>0.6080661508942113</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4409,7 +5035,10 @@
         <v>6</v>
       </c>
       <c r="E209" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F209" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="210">
@@ -4417,7 +5046,7 @@
         <v>29</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4428,7 +5057,10 @@
         <v>6</v>
       </c>
       <c r="E210" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="211">
@@ -4436,7 +5068,7 @@
         <v>29</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4447,7 +5079,10 @@
         <v>6</v>
       </c>
       <c r="E211" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="212">
@@ -4455,7 +5090,7 @@
         <v>29</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4466,7 +5101,10 @@
         <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F212" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="213">
@@ -4474,7 +5112,7 @@
         <v>29</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4485,7 +5123,10 @@
         <v>6</v>
       </c>
       <c r="E213" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F213" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="214">
@@ -4493,7 +5134,7 @@
         <v>29</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4505,6 +5146,9 @@
       </c>
       <c r="E214" t="n">
         <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="215">
@@ -4512,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4523,7 +5167,10 @@
         <v>6</v>
       </c>
       <c r="E215" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F215" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="216">
@@ -4531,7 +5178,7 @@
         <v>29</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4543,6 +5190,9 @@
       </c>
       <c r="E216" t="n">
         <v>9</v>
+      </c>
+      <c r="F216" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="217">
@@ -4550,7 +5200,7 @@
         <v>29</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5898570785880628</v>
+        <v>0.5958171959031469</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4561,7 +5211,10 @@
         <v>6</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="218">
@@ -4569,7 +5222,7 @@
         <v>30</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4580,7 +5233,10 @@
         <v>6</v>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="219">
@@ -4588,7 +5244,7 @@
         <v>30</v>
       </c>
       <c r="B219" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4599,7 +5255,10 @@
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="220">
@@ -4607,7 +5266,7 @@
         <v>30</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4618,7 +5277,10 @@
         <v>6</v>
       </c>
       <c r="E220" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="F220" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="221">
@@ -4626,7 +5288,7 @@
         <v>30</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4638,6 +5300,9 @@
       </c>
       <c r="E221" t="n">
         <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="222">
@@ -4645,7 +5310,7 @@
         <v>30</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4656,7 +5321,10 @@
         <v>6</v>
       </c>
       <c r="E222" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="223">
@@ -4664,7 +5332,7 @@
         <v>30</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4675,7 +5343,10 @@
         <v>6</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="224">
@@ -4683,7 +5354,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4695,6 +5366,9 @@
       </c>
       <c r="E224" t="n">
         <v>9</v>
+      </c>
+      <c r="F224" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="225">
@@ -4702,7 +5376,7 @@
         <v>30</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4917247691739787</v>
+        <v>0.5102977380439359</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4713,7 +5387,10 @@
         <v>6</v>
       </c>
       <c r="E225" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
